--- a/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_6_qoq_errors_first_eval.xlsx
+++ b/0_1_Output_Data/4_naive_forecaster_qoq_error_series/AVERAGE_1_6_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Q0</t>
   </si>
@@ -37,66 +37,354 @@
     <t>Q6</t>
   </si>
   <si>
+    <t>1988-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1989-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1990-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1991-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1992-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1993-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1994-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1995-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1996-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1997-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1998-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>1999-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2000-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2001-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2002-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2003-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2004-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2005-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2006-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2007-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2007-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2008-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2008-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2009-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2010-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2010-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2011-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2011-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2012-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2012-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2013-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2013-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2014-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2014-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2015-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2015-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2016-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2016-10-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-01-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-04-01 00:00:00_diff</t>
   </si>
   <si>
+    <t>2017-07-01 00:00:00_diff</t>
+  </si>
+  <si>
     <t>2017-10-01 00:00:00_diff</t>
   </si>
   <si>
@@ -188,6 +476,9 @@
   </si>
   <si>
     <t>2025-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-07-01 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -545,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.4174214480787524</v>
+        <v>-0.1015889993717549</v>
       </c>
       <c r="C2">
-        <v>-0.8445681578933891</v>
+        <v>0.07289971874330292</v>
       </c>
       <c r="D2">
-        <v>1.179239969702975</v>
+        <v>0.6861041961609605</v>
       </c>
       <c r="E2">
-        <v>1.207888790514512</v>
+        <v>0.1980668107350375</v>
       </c>
       <c r="F2">
-        <v>2.79141761697413</v>
+        <v>-0.07571947167957593</v>
       </c>
       <c r="G2">
-        <v>4.484238504915845</v>
+        <v>-0.9751206607533791</v>
       </c>
       <c r="H2">
-        <v>0.3659550853098885</v>
+        <v>0.6133982337718116</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -605,25 +896,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.023808127596364</v>
+        <v>0.1744887181150578</v>
       </c>
       <c r="C3">
-        <v>2.052456948407901</v>
+        <v>0.7876931955327154</v>
       </c>
       <c r="D3">
-        <v>3.635985774867519</v>
+        <v>0.2996558101067924</v>
       </c>
       <c r="E3">
-        <v>5.328806662809233</v>
+        <v>0.02586952769217898</v>
       </c>
       <c r="F3">
-        <v>1.210523243203278</v>
+        <v>-0.8735316613816242</v>
       </c>
       <c r="G3">
-        <v>0.8000055676402342</v>
+        <v>0.7149872331435665</v>
       </c>
       <c r="H3">
-        <v>1.518536236896474</v>
+        <v>-0.9121213123694532</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -631,25 +922,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.583528826459618</v>
+        <v>0.6132044774176576</v>
       </c>
       <c r="C4">
-        <v>3.276349714401333</v>
+        <v>0.1251670919917346</v>
       </c>
       <c r="D4">
-        <v>-0.8419337052046232</v>
+        <v>-0.1486191904228789</v>
       </c>
       <c r="E4">
-        <v>-1.252451380767666</v>
+        <v>-1.048020379496682</v>
       </c>
       <c r="F4">
-        <v>-0.5339207115114269</v>
+        <v>0.5404985150285087</v>
       </c>
       <c r="G4">
-        <v>-0.6857638531321528</v>
+        <v>-1.086610030484511</v>
       </c>
       <c r="H4">
-        <v>-2.706504094908821</v>
+        <v>-0.7474086197490299</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -657,25 +948,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-4.118283419605956</v>
+        <v>-0.488037385425923</v>
       </c>
       <c r="C5">
-        <v>-4.528801095168999</v>
+        <v>-0.7618236678405365</v>
       </c>
       <c r="D5">
-        <v>-3.81027042591276</v>
+        <v>-1.66122485691434</v>
       </c>
       <c r="E5">
-        <v>-3.962113567533486</v>
+        <v>-0.072705962389149</v>
       </c>
       <c r="F5">
-        <v>-5.982853809310154</v>
+        <v>-1.699814507902169</v>
       </c>
       <c r="G5">
-        <v>-4.498778175550395</v>
+        <v>-1.360613097166687</v>
       </c>
       <c r="H5">
-        <v>-4.165559092588866</v>
+        <v>-2.345983893123929</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -683,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7185306692562395</v>
+        <v>-0.2737862824146134</v>
       </c>
       <c r="C6">
-        <v>0.5666875276355137</v>
+        <v>-1.173187471488417</v>
       </c>
       <c r="D6">
-        <v>-1.454052714141154</v>
+        <v>0.415331423036774</v>
       </c>
       <c r="E6">
-        <v>0.03002291961860393</v>
+        <v>-1.211777122476246</v>
       </c>
       <c r="F6">
-        <v>0.3632420025801336</v>
+        <v>-0.8725757117407645</v>
       </c>
       <c r="G6">
-        <v>-0.7711431800160362</v>
+        <v>-1.857946507698006</v>
       </c>
       <c r="H6">
-        <v>0.6088167804617307</v>
+        <v>-0.2131432075968446</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -709,25 +1000,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>-2.020740241776668</v>
+        <v>-0.8994011890738032</v>
       </c>
       <c r="C7">
-        <v>-0.5366646080169097</v>
+        <v>0.6891177054513875</v>
       </c>
       <c r="D7">
-        <v>-0.2034455250553801</v>
+        <v>-0.9379908400616321</v>
       </c>
       <c r="E7">
-        <v>-1.33783070765155</v>
+        <v>-0.5987894293261511</v>
       </c>
       <c r="F7">
-        <v>0.0421292528262171</v>
+        <v>-1.584160225283393</v>
       </c>
       <c r="G7">
-        <v>-0.3416665520839498</v>
+        <v>0.06064307481776887</v>
       </c>
       <c r="H7">
-        <v>0.3432193386903587</v>
+        <v>1.773730451669655</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -735,25 +1026,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3332190829615296</v>
+        <v>1.588518894525191</v>
       </c>
       <c r="C8">
-        <v>-0.8011660996346401</v>
+        <v>-0.03858965098782896</v>
       </c>
       <c r="D8">
-        <v>0.5787938608431268</v>
+        <v>0.3006117597476521</v>
       </c>
       <c r="E8">
-        <v>0.1949980559329599</v>
+        <v>-0.6847590362095897</v>
       </c>
       <c r="F8">
-        <v>0.8798839467072684</v>
+        <v>0.960044263891572</v>
       </c>
       <c r="G8">
-        <v>0.1878585623255973</v>
+        <v>2.673131640743458</v>
       </c>
       <c r="H8">
-        <v>0.4273069063282261</v>
+        <v>1.204096187746392</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -761,25 +1052,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.379959960477767</v>
+        <v>-1.62710854551302</v>
       </c>
       <c r="C9">
-        <v>0.9961641555676001</v>
+        <v>-1.287907134777539</v>
       </c>
       <c r="D9">
-        <v>1.681050046341908</v>
+        <v>-2.27327793073478</v>
       </c>
       <c r="E9">
-        <v>0.9890246619602374</v>
+        <v>-0.6284746306336186</v>
       </c>
       <c r="F9">
-        <v>1.228473005962866</v>
+        <v>1.084612746218267</v>
       </c>
       <c r="G9">
-        <v>1.265200982722037</v>
+        <v>-0.384422706778799</v>
       </c>
       <c r="H9">
-        <v>2.091695057109352</v>
+        <v>-0.8635782902773586</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -787,25 +1078,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6848858907743085</v>
+        <v>0.339201410735481</v>
       </c>
       <c r="C10">
-        <v>-0.007139493607362657</v>
+        <v>-0.6461693852217607</v>
       </c>
       <c r="D10">
-        <v>0.2323088503952662</v>
+        <v>0.998633914879401</v>
       </c>
       <c r="E10">
-        <v>0.2690368271544369</v>
+        <v>2.711721291731287</v>
       </c>
       <c r="F10">
-        <v>1.095530901541752</v>
+        <v>1.242685838734221</v>
       </c>
       <c r="G10">
-        <v>0.4397326914201872</v>
+        <v>0.7635302552356611</v>
       </c>
       <c r="H10">
-        <v>-0.2184175483054337</v>
+        <v>2.153408965303742</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -813,25 +1104,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2394483440026288</v>
+        <v>-0.9853707959572418</v>
       </c>
       <c r="C11">
-        <v>0.2761763207617995</v>
+        <v>0.65943250414392</v>
       </c>
       <c r="D11">
-        <v>1.102670395149115</v>
+        <v>2.372519880995806</v>
       </c>
       <c r="E11">
-        <v>0.4468721850275498</v>
+        <v>0.9034844279987395</v>
       </c>
       <c r="F11">
-        <v>-0.211278054698071</v>
+        <v>0.42432884450018</v>
       </c>
       <c r="G11">
-        <v>0.187836893153712</v>
+        <v>1.814207554568261</v>
       </c>
       <c r="H11">
-        <v>0.1264003510321347</v>
+        <v>1.924024116979384</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -839,25 +1130,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8264940743873155</v>
+        <v>1.644803300101162</v>
       </c>
       <c r="C12">
-        <v>0.1706958642657503</v>
+        <v>3.357890676953048</v>
       </c>
       <c r="D12">
-        <v>-0.4874543754598706</v>
+        <v>1.888855223955981</v>
       </c>
       <c r="E12">
-        <v>-0.0883394276080875</v>
+        <v>1.409699640457422</v>
       </c>
       <c r="F12">
-        <v>-0.1497759697296649</v>
+        <v>2.799578350525502</v>
       </c>
       <c r="G12">
-        <v>-0.5839419048467684</v>
+        <v>2.909394912936626</v>
       </c>
       <c r="H12">
-        <v>0.3948594872323085</v>
+        <v>2.895877486020848</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -865,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.6581502397256208</v>
+        <v>1.713087376851886</v>
       </c>
       <c r="C13">
-        <v>-0.2590352918738378</v>
+        <v>0.2440519238548196</v>
       </c>
       <c r="D13">
-        <v>-0.3204718339954152</v>
+        <v>-0.2351036596437399</v>
       </c>
       <c r="E13">
-        <v>-0.7546377691125187</v>
+        <v>1.154775050424341</v>
       </c>
       <c r="F13">
-        <v>0.2241636229665582</v>
+        <v>1.264591612835464</v>
       </c>
       <c r="G13">
-        <v>-0.00295228148136796</v>
+        <v>1.251074185919687</v>
       </c>
       <c r="H13">
-        <v>-0.6364120109074565</v>
+        <v>2.903018380062358</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -891,25 +1182,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0614365421215774</v>
+        <v>-1.469035452997066</v>
       </c>
       <c r="C14">
-        <v>-0.4956024772386809</v>
+        <v>-1.948191036495626</v>
       </c>
       <c r="D14">
-        <v>0.483198914840396</v>
+        <v>-0.5583123264275452</v>
       </c>
       <c r="E14">
-        <v>0.2560830103924698</v>
+        <v>-0.4484957640164218</v>
       </c>
       <c r="F14">
-        <v>-0.3773767190336187</v>
+        <v>-0.4620131909321991</v>
       </c>
       <c r="G14">
-        <v>0.0500202396219856</v>
+        <v>1.189931003210472</v>
       </c>
       <c r="H14">
-        <v>-0.1163167150661613</v>
+        <v>-1.230163998745215</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -917,25 +1208,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.9788013920790769</v>
+        <v>-0.4791555834985595</v>
       </c>
       <c r="C15">
-        <v>0.7516854876311507</v>
+        <v>0.910723126569521</v>
       </c>
       <c r="D15">
-        <v>0.1182257582050622</v>
+        <v>1.020539688980644</v>
       </c>
       <c r="E15">
-        <v>0.5456227168606665</v>
+        <v>1.007022262064867</v>
       </c>
       <c r="F15">
-        <v>0.3792857621725196</v>
+        <v>2.658966456207539</v>
       </c>
       <c r="G15">
-        <v>0.5019967786133455</v>
+        <v>0.2388714542518511</v>
       </c>
       <c r="H15">
-        <v>0.5492305151684858</v>
+        <v>0.1453312341044147</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -943,25 +1234,25 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.6334597294260885</v>
+        <v>1.389878710068081</v>
       </c>
       <c r="C16">
-        <v>-0.2060627707704842</v>
+        <v>1.499695272479204</v>
       </c>
       <c r="D16">
-        <v>-0.3723997254586311</v>
+        <v>1.486177845563427</v>
       </c>
       <c r="E16">
-        <v>-0.2496887090178053</v>
+        <v>3.138122039706098</v>
       </c>
       <c r="F16">
-        <v>-0.202454972462665</v>
+        <v>0.7180270377504105</v>
       </c>
       <c r="G16">
-        <v>-0.5990737039851166</v>
+        <v>0.6244868176029742</v>
       </c>
       <c r="H16">
-        <v>-0.3450216688613965</v>
+        <v>1.542304871686332</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -969,25 +1260,25 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.1663369546881469</v>
+        <v>0.1098165624111234</v>
       </c>
       <c r="C17">
-        <v>-0.04362593824732108</v>
+        <v>0.09629913549534619</v>
       </c>
       <c r="D17">
-        <v>0.00360779830781921</v>
+        <v>1.748243329638018</v>
       </c>
       <c r="E17">
-        <v>-0.3930109332146324</v>
+        <v>-0.67185167231767</v>
       </c>
       <c r="F17">
-        <v>-0.1389588980909123</v>
+        <v>-0.7653918924651063</v>
       </c>
       <c r="G17">
-        <v>0.0811654917826603</v>
+        <v>0.1524261616182511</v>
       </c>
       <c r="H17">
-        <v>-0.1546229568040079</v>
+        <v>-1.218769435916921</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -995,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.04723373655514029</v>
+        <v>-0.0135174269157772</v>
       </c>
       <c r="C18">
-        <v>-0.3493849949673113</v>
+        <v>1.638426767226894</v>
       </c>
       <c r="D18">
-        <v>-0.09533295984359125</v>
+        <v>-0.7816682347287933</v>
       </c>
       <c r="E18">
-        <v>0.1247914300299814</v>
+        <v>-0.8752084548762298</v>
       </c>
       <c r="F18">
-        <v>-0.1109970185566868</v>
+        <v>0.04260959920712767</v>
       </c>
       <c r="G18">
-        <v>-0.2899697760274715</v>
+        <v>-1.328585998328045</v>
       </c>
       <c r="H18">
-        <v>-0.3005303062867926</v>
+        <v>-1.383344730387099</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1021,25 +1312,25 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2540520351237201</v>
+        <v>1.651944194142671</v>
       </c>
       <c r="C19">
-        <v>0.4741764249972927</v>
+        <v>-0.7681508078130161</v>
       </c>
       <c r="D19">
-        <v>0.2383879764106245</v>
+        <v>-0.8616910279604525</v>
       </c>
       <c r="E19">
-        <v>0.05941521893983981</v>
+        <v>0.05612702612290488</v>
       </c>
       <c r="F19">
-        <v>0.04885468868051879</v>
+        <v>-1.315068571412268</v>
       </c>
       <c r="G19">
-        <v>-0.1588644214776113</v>
+        <v>-1.369827303471322</v>
       </c>
       <c r="H19">
-        <v>0.05834447799729348</v>
+        <v>-0.7596672435102867</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1047,25 +1338,25 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.2357884485866682</v>
+        <v>-2.420095001955687</v>
       </c>
       <c r="C20">
-        <v>-0.4147612060574529</v>
+        <v>-2.513635222103124</v>
       </c>
       <c r="D20">
-        <v>-0.4253217363167739</v>
+        <v>-1.595817168019766</v>
       </c>
       <c r="E20">
-        <v>-0.633040846474904</v>
+        <v>-2.967012765554939</v>
       </c>
       <c r="F20">
-        <v>-0.4158319469999993</v>
+        <v>-3.021771497613993</v>
       </c>
       <c r="G20">
-        <v>-0.1061457777419378</v>
+        <v>-2.411611437652958</v>
       </c>
       <c r="H20">
-        <v>-0.2604499115739418</v>
+        <v>-2.407763921972577</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1073,25 +1364,25 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01056053025932102</v>
+        <v>-0.09354022014743635</v>
       </c>
       <c r="C21">
-        <v>-0.2182796404174511</v>
+        <v>0.824277833935921</v>
       </c>
       <c r="D21">
-        <v>-0.001070740942546333</v>
+        <v>-0.5469177635992515</v>
       </c>
       <c r="E21">
-        <v>0.3086154283155151</v>
+        <v>-0.6016764956583056</v>
       </c>
       <c r="F21">
-        <v>0.1543112944835111</v>
+        <v>0.008483564302729452</v>
       </c>
       <c r="G21">
-        <v>0.8047377157026943</v>
+        <v>0.01233107998310978</v>
       </c>
       <c r="H21">
-        <v>0.5885726670844852</v>
+        <v>0.4169329080960437</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1099,25 +1390,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2172088994749047</v>
+        <v>0.9178180540833574</v>
       </c>
       <c r="C22">
-        <v>0.5268950687329662</v>
+        <v>-0.4533775434518151</v>
       </c>
       <c r="D22">
-        <v>0.3725909349009622</v>
+        <v>-0.5081362755108693</v>
       </c>
       <c r="E22">
-        <v>1.023017356120145</v>
+        <v>0.1020237844501658</v>
       </c>
       <c r="F22">
-        <v>0.8068523075019363</v>
+        <v>0.1058713001305461</v>
       </c>
       <c r="G22">
-        <v>0.3998231784669799</v>
+        <v>0.51047312824348</v>
       </c>
       <c r="H22">
-        <v>0.8988653956443997</v>
+        <v>-0.3422904801179761</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1125,25 +1416,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3096861692580615</v>
+        <v>-1.371195597535173</v>
       </c>
       <c r="C23">
-        <v>0.1553820354260574</v>
+        <v>-1.425954329594227</v>
       </c>
       <c r="D23">
-        <v>0.8058084566452406</v>
+        <v>-0.8157942696331916</v>
       </c>
       <c r="E23">
-        <v>0.5896434080270315</v>
+        <v>-0.8119467539528112</v>
       </c>
       <c r="F23">
-        <v>0.1826142789920752</v>
+        <v>-0.4073449258398774</v>
       </c>
       <c r="G23">
-        <v>0.681656496169495</v>
+        <v>-1.260108534201334</v>
       </c>
       <c r="H23">
-        <v>0.5228075830139824</v>
+        <v>-0.1803931988798419</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1151,25 +1442,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.154304133832004</v>
+        <v>-0.05475873205905413</v>
       </c>
       <c r="C24">
-        <v>0.4961222873871792</v>
+        <v>0.5554013279019809</v>
       </c>
       <c r="D24">
-        <v>0.2799572387689701</v>
+        <v>0.5592488435823613</v>
       </c>
       <c r="E24">
-        <v>-0.1270718902659863</v>
+        <v>0.9638506716952951</v>
       </c>
       <c r="F24">
-        <v>0.3719703269114335</v>
+        <v>0.111087063333839</v>
       </c>
       <c r="G24">
-        <v>0.2131214137559209</v>
+        <v>1.190802398655331</v>
       </c>
       <c r="H24">
-        <v>0.269285234726165</v>
+        <v>1.585882302453186</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1177,25 +1468,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6504264212191833</v>
+        <v>0.6101600599610351</v>
       </c>
       <c r="C25">
-        <v>0.4342613726009741</v>
+        <v>0.6140075756414154</v>
       </c>
       <c r="D25">
-        <v>0.02723224356601772</v>
+        <v>1.018609403754349</v>
       </c>
       <c r="E25">
-        <v>0.5262744607434375</v>
+        <v>0.1658457953928931</v>
       </c>
       <c r="F25">
-        <v>0.3674255475879249</v>
+        <v>1.245561130714385</v>
       </c>
       <c r="G25">
-        <v>0.423589368558169</v>
+        <v>1.64064103451224</v>
       </c>
       <c r="H25">
-        <v>2.673392208169561</v>
+        <v>1.602251368441098</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1203,25 +1494,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.2161650486182091</v>
+        <v>0.003847515680380331</v>
       </c>
       <c r="C26">
-        <v>-0.6231941776531655</v>
+        <v>0.4084493437933142</v>
       </c>
       <c r="D26">
-        <v>-0.1241519604757457</v>
+        <v>-0.4443142645681419</v>
       </c>
       <c r="E26">
-        <v>-0.2830008736312583</v>
+        <v>0.6354010707533497</v>
       </c>
       <c r="F26">
-        <v>-0.2268370526610142</v>
+        <v>1.030480974551205</v>
       </c>
       <c r="G26">
-        <v>2.022965786950378</v>
+        <v>0.9920913084800624</v>
       </c>
       <c r="H26">
-        <v>9.492116117807671</v>
+        <v>-0.862413343050864</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1229,25 +1520,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.4070291290349564</v>
+        <v>0.4046018281129339</v>
       </c>
       <c r="C27">
-        <v>0.09201308814246346</v>
+        <v>-0.4481617802485223</v>
       </c>
       <c r="D27">
-        <v>-0.06683582501304909</v>
+        <v>0.6315535550729694</v>
       </c>
       <c r="E27">
-        <v>-0.01067200404280504</v>
+        <v>1.026633458870825</v>
       </c>
       <c r="F27">
-        <v>2.239130835568587</v>
+        <v>0.9882437927996821</v>
       </c>
       <c r="G27">
-        <v>9.708281166425881</v>
+        <v>-0.8662608587312444</v>
       </c>
       <c r="H27">
-        <v>-8.462980633711588</v>
+        <v>-0.1912481812991093</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1255,25 +1546,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4990422171774198</v>
+        <v>-0.8527636083614561</v>
       </c>
       <c r="C28">
-        <v>0.3401933040219072</v>
+        <v>0.2269517269600355</v>
       </c>
       <c r="D28">
-        <v>0.3963571249921513</v>
+        <v>0.622031630757891</v>
       </c>
       <c r="E28">
-        <v>2.646159964603544</v>
+        <v>0.5836419646867483</v>
       </c>
       <c r="F28">
-        <v>10.11531029546084</v>
+        <v>-1.270862686844178</v>
       </c>
       <c r="G28">
-        <v>-8.055951504676631</v>
+        <v>-0.5958500094120431</v>
       </c>
       <c r="H28">
-        <v>0.08372004230251717</v>
+        <v>0.1360003573762339</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1281,25 +1572,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.1588489131555126</v>
+        <v>1.079715335321492</v>
       </c>
       <c r="C29">
-        <v>-0.1026850921852685</v>
+        <v>1.474795239119347</v>
       </c>
       <c r="D29">
-        <v>2.147117747426124</v>
+        <v>1.436405573048204</v>
       </c>
       <c r="E29">
-        <v>9.616268078283417</v>
+        <v>-0.4180990784827221</v>
       </c>
       <c r="F29">
-        <v>-8.554993721854052</v>
+        <v>0.256913598949413</v>
       </c>
       <c r="G29">
-        <v>-0.4153221748749026</v>
+        <v>0.9887639657376901</v>
       </c>
       <c r="H29">
-        <v>1.73224829692449</v>
+        <v>0.6262240231044304</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1307,25 +1598,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.05616382097024405</v>
+        <v>0.3950799037978556</v>
       </c>
       <c r="C30">
-        <v>2.305966660581636</v>
+        <v>0.3566902377267128</v>
       </c>
       <c r="D30">
-        <v>9.77511699143893</v>
+        <v>-1.497814413804214</v>
       </c>
       <c r="E30">
-        <v>-8.396144808698539</v>
+        <v>-0.8228017363720787</v>
       </c>
       <c r="F30">
-        <v>-0.2564732617193901</v>
+        <v>-0.09095136958380153</v>
       </c>
       <c r="G30">
-        <v>1.891097210080002</v>
+        <v>-0.4534913122170612</v>
       </c>
       <c r="H30">
-        <v>-1.548932776443328</v>
+        <v>-1.023684459168855</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1333,25 +1624,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>2.249802839611392</v>
+        <v>-0.0383896660711428</v>
       </c>
       <c r="C31">
-        <v>9.718953170468685</v>
+        <v>-1.892894317602069</v>
       </c>
       <c r="D31">
-        <v>-8.452308629668783</v>
+        <v>-1.217881640169934</v>
       </c>
       <c r="E31">
-        <v>-0.3126370826896341</v>
+        <v>-0.4860312733816571</v>
       </c>
       <c r="F31">
-        <v>1.834933389109758</v>
+        <v>-0.8485712160149168</v>
       </c>
       <c r="G31">
-        <v>-1.605096597413572</v>
+        <v>-1.41876436296671</v>
       </c>
       <c r="H31">
-        <v>-1.666270775827773</v>
+        <v>-1.190522635165617</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1359,25 +1650,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>7.469150330857293</v>
+        <v>-1.854504651530926</v>
       </c>
       <c r="C32">
-        <v>-10.70211146928018</v>
+        <v>-1.179491974098791</v>
       </c>
       <c r="D32">
-        <v>-2.562439922301026</v>
+        <v>-0.4476416073105143</v>
       </c>
       <c r="E32">
-        <v>-0.4148694505016339</v>
+        <v>-0.8101815499437741</v>
       </c>
       <c r="F32">
-        <v>-3.854899437024964</v>
+        <v>-1.380374696895567</v>
       </c>
       <c r="G32">
-        <v>-3.916073615439165</v>
+        <v>-1.152132969094474</v>
       </c>
       <c r="H32">
-        <v>-1.87461767828291</v>
+        <v>-0.6500645024094984</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1385,25 +1676,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>-18.17126180013747</v>
+        <v>0.6750126774321351</v>
       </c>
       <c r="C33">
-        <v>-10.03159025315832</v>
+        <v>1.406863044220412</v>
       </c>
       <c r="D33">
-        <v>-7.884019781358927</v>
+        <v>1.044323101587152</v>
       </c>
       <c r="E33">
-        <v>-11.32404976788226</v>
+        <v>0.474129954635359</v>
       </c>
       <c r="F33">
-        <v>-11.38522394629646</v>
+        <v>0.7023716824364521</v>
       </c>
       <c r="G33">
-        <v>-9.343768009140204</v>
+        <v>1.204440149121428</v>
       </c>
       <c r="H33">
-        <v>-9.926362546173845</v>
+        <v>0.5323635114152702</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1411,25 +1702,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>8.13967154697915</v>
+        <v>0.7318503667882771</v>
       </c>
       <c r="C34">
-        <v>10.28724201877854</v>
+        <v>0.3693104241550174</v>
       </c>
       <c r="D34">
-        <v>6.847212032255212</v>
+        <v>-0.2008827227967761</v>
       </c>
       <c r="E34">
-        <v>6.786037853841011</v>
+        <v>0.02735900500431698</v>
       </c>
       <c r="F34">
-        <v>8.827493790997265</v>
+        <v>0.5294274716892929</v>
       </c>
       <c r="G34">
-        <v>8.244899253963624</v>
+        <v>-0.1426491660168649</v>
       </c>
       <c r="H34">
-        <v>8.340574294772981</v>
+        <v>0.7087917088158802</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1437,25 +1728,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>2.147570471799392</v>
+        <v>-0.3625399426332597</v>
       </c>
       <c r="C35">
-        <v>-1.292459514723937</v>
+        <v>-0.9327330895850532</v>
       </c>
       <c r="D35">
-        <v>-1.353633693138139</v>
+        <v>-0.7044913617839601</v>
       </c>
       <c r="E35">
-        <v>0.6878222440181159</v>
+        <v>-0.2024228950989841</v>
       </c>
       <c r="F35">
-        <v>0.1052277069844749</v>
+        <v>-0.874499532805142</v>
       </c>
       <c r="G35">
-        <v>0.2009027477938327</v>
+        <v>-0.02305865797239695</v>
       </c>
       <c r="H35">
-        <v>-0.0595162892048901</v>
+        <v>-0.7914760858551229</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1463,25 +1754,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>-3.44002998652333</v>
+        <v>-0.5701931469517935</v>
       </c>
       <c r="C36">
-        <v>-3.501204164937531</v>
+        <v>-0.3419514191507004</v>
       </c>
       <c r="D36">
-        <v>-1.459748227781277</v>
+        <v>0.1601170475342756</v>
       </c>
       <c r="E36">
-        <v>-2.042342764814918</v>
+        <v>-0.5119595901718823</v>
       </c>
       <c r="F36">
-        <v>-1.94666772400556</v>
+        <v>0.3394812846608628</v>
       </c>
       <c r="G36">
-        <v>-2.207086761004283</v>
+        <v>-0.4289361432218631</v>
       </c>
       <c r="H36">
-        <v>-1.371631764845791</v>
+        <v>0.8152067137320799</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1489,25 +1780,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>-0.06117417841420103</v>
+        <v>0.2282417278010931</v>
       </c>
       <c r="C37">
-        <v>1.980281758742053</v>
+        <v>0.730310194486069</v>
       </c>
       <c r="D37">
-        <v>1.397687221708412</v>
+        <v>0.05823355677991116</v>
       </c>
       <c r="E37">
-        <v>1.49336226251777</v>
+        <v>0.9096744316126563</v>
       </c>
       <c r="F37">
-        <v>1.232943225519047</v>
+        <v>0.1412570037299303</v>
       </c>
       <c r="G37">
-        <v>2.068398221677539</v>
+        <v>1.385399860683873</v>
       </c>
       <c r="H37">
-        <v>1.968318861774917</v>
+        <v>0.5722406708590284</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1515,25 +1806,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>2.041455937156254</v>
+        <v>0.502068466684976</v>
       </c>
       <c r="C38">
-        <v>1.458861400122613</v>
+        <v>-0.1700081710211819</v>
       </c>
       <c r="D38">
-        <v>1.554536440931971</v>
+        <v>0.6814327038115632</v>
       </c>
       <c r="E38">
-        <v>1.294117403933248</v>
+        <v>-0.08698472407116276</v>
       </c>
       <c r="F38">
-        <v>2.12957240009174</v>
+        <v>1.15715813288278</v>
       </c>
       <c r="G38">
-        <v>2.029493040189118</v>
+        <v>0.3439989430579353</v>
       </c>
       <c r="H38">
-        <v>1.675706534109422</v>
+        <v>0.7398699988874595</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1541,25 +1832,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.5825945370336409</v>
+        <v>-0.6720766377061579</v>
       </c>
       <c r="C39">
-        <v>-0.4869194962242832</v>
+        <v>0.1793642371265872</v>
       </c>
       <c r="D39">
-        <v>-0.747338533223006</v>
+        <v>-0.5890531907561387</v>
       </c>
       <c r="E39">
-        <v>0.0881164629354852</v>
+        <v>0.6550896661978043</v>
       </c>
       <c r="F39">
-        <v>-0.01196289696713632</v>
+        <v>-0.1580695236270406</v>
       </c>
       <c r="G39">
-        <v>-0.3657494030468326</v>
+        <v>0.2378015322024836</v>
       </c>
       <c r="H39">
-        <v>-0.2175720126143872</v>
+        <v>-0.4381770551527031</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1567,25 +1858,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09567504080935779</v>
+        <v>0.8514408748327451</v>
       </c>
       <c r="C40">
-        <v>-0.164743996189365</v>
+        <v>0.08302344695001918</v>
       </c>
       <c r="D40">
-        <v>0.6707109999691262</v>
+        <v>1.327166303903962</v>
       </c>
       <c r="E40">
-        <v>0.5706316400665047</v>
+        <v>0.5140071140791173</v>
       </c>
       <c r="F40">
-        <v>0.2168451339868084</v>
+        <v>0.9098781699086415</v>
       </c>
       <c r="G40">
-        <v>0.3650225244192538</v>
+        <v>0.2338995825534548</v>
       </c>
       <c r="H40">
-        <v>0.5224685134234088</v>
+        <v>0.2611605540325258</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1593,25 +1884,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.2604190369987228</v>
+        <v>-0.7684174278827259</v>
       </c>
       <c r="C41">
-        <v>0.5750359591597685</v>
+        <v>0.4757254290712171</v>
       </c>
       <c r="D41">
-        <v>0.4749565992571469</v>
+        <v>-0.3374337607536279</v>
       </c>
       <c r="E41">
-        <v>0.1211700931774507</v>
+        <v>0.05843729507589641</v>
       </c>
       <c r="F41">
-        <v>0.269347483609896</v>
+        <v>-0.6175412922792903</v>
       </c>
       <c r="G41">
-        <v>0.426793472614051</v>
+        <v>-0.5902803208002193</v>
       </c>
       <c r="H41">
-        <v>-0.07386598391201982</v>
+        <v>-0.5588004706453262</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1619,25 +1910,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.8354549961584912</v>
+        <v>1.244142856953943</v>
       </c>
       <c r="C42">
-        <v>0.7353756362558697</v>
+        <v>0.4309836671290981</v>
       </c>
       <c r="D42">
-        <v>0.3815891301761735</v>
+        <v>0.8268547229586223</v>
       </c>
       <c r="E42">
-        <v>0.5297665206086188</v>
+        <v>0.1508761356034356</v>
       </c>
       <c r="F42">
-        <v>0.6872125096127738</v>
+        <v>0.1781371070825066</v>
       </c>
       <c r="G42">
-        <v>0.186553053086703</v>
+        <v>0.2096169572373997</v>
       </c>
       <c r="H42">
-        <v>0.4669109336221722</v>
+        <v>-0.2790492487783893</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1645,25 +1936,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.1000793599026215</v>
+        <v>-0.8131591898248449</v>
       </c>
       <c r="C43">
-        <v>-0.4538658659823178</v>
+        <v>-0.4172881339953207</v>
       </c>
       <c r="D43">
-        <v>-0.3056884755498724</v>
+        <v>-1.093266721350507</v>
       </c>
       <c r="E43">
-        <v>-0.1482424865457174</v>
+        <v>-1.066005749871436</v>
       </c>
       <c r="F43">
-        <v>-0.6489019430717882</v>
+        <v>-1.034525899716543</v>
       </c>
       <c r="G43">
-        <v>-0.3685440625363191</v>
+        <v>-1.523192105732332</v>
       </c>
       <c r="H43">
-        <v>-0.5405189203813308</v>
+        <v>-0.9397628161833199</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1671,25 +1962,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.3537865060796963</v>
+        <v>0.3958710558295243</v>
       </c>
       <c r="C44">
-        <v>-0.2056091156472509</v>
+        <v>-0.2801075315256625</v>
       </c>
       <c r="D44">
-        <v>-0.04816312664309591</v>
+        <v>-0.2528465600465915</v>
       </c>
       <c r="E44">
-        <v>-0.5488225831691667</v>
+        <v>-0.2213667098916984</v>
       </c>
       <c r="F44">
-        <v>-0.2684647026336975</v>
+        <v>-0.7100329159074874</v>
       </c>
       <c r="G44">
-        <v>-0.4404395604787092</v>
+        <v>-0.126603626358475</v>
       </c>
       <c r="H44">
-        <v>-0.1345770207323777</v>
+        <v>0.2311841573846966</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1697,25 +1988,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1481773904324453</v>
+        <v>-0.6759785873551867</v>
       </c>
       <c r="C45">
-        <v>0.3056233794366003</v>
+        <v>-0.6487176158761156</v>
       </c>
       <c r="D45">
-        <v>-0.1950360770894705</v>
+        <v>-0.6172377657212226</v>
       </c>
       <c r="E45">
-        <v>0.08532180344599868</v>
+        <v>-1.105903971737012</v>
       </c>
       <c r="F45">
-        <v>-0.08665305439901295</v>
+        <v>-0.5224746821879992</v>
       </c>
       <c r="G45">
-        <v>0.2192094853473185</v>
+        <v>-0.1646868984448276</v>
       </c>
       <c r="H45">
-        <v>-0.3931204673399676</v>
+        <v>-0.3283561714859065</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1723,25 +2014,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.157445989004155</v>
+        <v>0.02726097147907103</v>
       </c>
       <c r="C46">
-        <v>-0.3432134675219158</v>
+        <v>0.0587408216339641</v>
       </c>
       <c r="D46">
-        <v>-0.06285558698644665</v>
+        <v>-0.4299253843818249</v>
       </c>
       <c r="E46">
-        <v>-0.2348304448314583</v>
+        <v>0.1535039051671875</v>
       </c>
       <c r="F46">
-        <v>0.0710320949148732</v>
+        <v>0.5112916889103591</v>
       </c>
       <c r="G46">
-        <v>-0.541297857772413</v>
+        <v>0.3476224158692802</v>
       </c>
       <c r="H46">
-        <v>0.1470735274266985</v>
+        <v>0.7485871481707557</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1749,22 +2040,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.5006594565260708</v>
+        <v>0.03147985015489307</v>
       </c>
       <c r="C47">
-        <v>-0.2203015759906016</v>
+        <v>-0.457186355860896</v>
       </c>
       <c r="D47">
-        <v>-0.3922764338356133</v>
+        <v>0.1262429336881165</v>
       </c>
       <c r="E47">
-        <v>-0.0864138940892818</v>
+        <v>0.4840307174312881</v>
       </c>
       <c r="F47">
-        <v>-0.698743846776568</v>
+        <v>0.3203614443902092</v>
       </c>
       <c r="G47">
-        <v>-0.01037246157745647</v>
+        <v>0.7213261766916846</v>
+      </c>
+      <c r="H47">
+        <v>0.8322000609993634</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1772,69 +2066,2567 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2803578805354692</v>
+        <v>-0.488666206015789</v>
       </c>
       <c r="C48">
-        <v>0.1083830226904575</v>
+        <v>0.09476308353322338</v>
       </c>
       <c r="D48">
-        <v>0.414245562436789</v>
+        <v>0.452550867276395</v>
       </c>
       <c r="E48">
-        <v>-0.1980843902504972</v>
+        <v>0.2888815942353161</v>
       </c>
       <c r="F48">
-        <v>0.4902869949486143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.6898463265367916</v>
+      </c>
+      <c r="G48">
+        <v>0.8007202108444703</v>
+      </c>
+      <c r="H48">
+        <v>0.9138569144204975</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1719748578450117</v>
+        <v>0.5834292895490124</v>
       </c>
       <c r="C49">
-        <v>0.1338876819013198</v>
+        <v>0.9412170732921841</v>
       </c>
       <c r="D49">
-        <v>-0.4784422707859664</v>
+        <v>0.7775478002511051</v>
       </c>
       <c r="E49">
-        <v>0.2099291144131452</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>1.17851253255258</v>
+      </c>
+      <c r="F49">
+        <v>1.289386416860259</v>
+      </c>
+      <c r="G49">
+        <v>1.402523120436286</v>
+      </c>
+      <c r="H49">
+        <v>0.9783622978911866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.3058625397463315</v>
+        <v>0.3577877837431717</v>
       </c>
       <c r="C50">
-        <v>-0.3064674129409547</v>
+        <v>0.1941185107020927</v>
       </c>
       <c r="D50">
-        <v>0.3819039722581568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.5950832430035682</v>
+      </c>
+      <c r="E50">
+        <v>0.7059571273112469</v>
+      </c>
+      <c r="F50">
+        <v>0.8190938308872742</v>
+      </c>
+      <c r="G50">
+        <v>0.3949330083421742</v>
+      </c>
+      <c r="H50">
+        <v>0.2924704404959208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.6123299526872862</v>
+        <v>-0.1636692730410789</v>
       </c>
       <c r="C51">
-        <v>0.07604143251182532</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.2372954592603965</v>
+      </c>
+      <c r="D51">
+        <v>0.3481693435680753</v>
+      </c>
+      <c r="E51">
+        <v>0.4613060471441025</v>
+      </c>
+      <c r="F51">
+        <v>0.03714522459900249</v>
+      </c>
+      <c r="G51">
+        <v>-0.06531734324725083</v>
+      </c>
+      <c r="H51">
+        <v>-0.06087652374427113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B52">
+        <v>0.4009647323014754</v>
+      </c>
+      <c r="C52">
+        <v>0.5118386166091542</v>
+      </c>
+      <c r="D52">
+        <v>0.6249753201851813</v>
+      </c>
+      <c r="E52">
+        <v>0.2008144976400814</v>
+      </c>
+      <c r="F52">
+        <v>0.09835192979382806</v>
+      </c>
+      <c r="G52">
+        <v>0.1027927492968078</v>
+      </c>
+      <c r="H52">
+        <v>0.4028697721841472</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1108738843076788</v>
+      </c>
+      <c r="C53">
+        <v>0.224010587883706</v>
+      </c>
+      <c r="D53">
+        <v>-0.200150234661394</v>
+      </c>
+      <c r="E53">
+        <v>-0.3026128025076473</v>
+      </c>
+      <c r="F53">
+        <v>-0.2981719830046676</v>
+      </c>
+      <c r="G53">
+        <v>0.001905039882671763</v>
+      </c>
+      <c r="H53">
+        <v>0.1967766545764462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1131367035760272</v>
+      </c>
+      <c r="C54">
+        <v>-0.3110241189690728</v>
+      </c>
+      <c r="D54">
+        <v>-0.4134866868153261</v>
+      </c>
+      <c r="E54">
+        <v>-0.4090458673123464</v>
+      </c>
+      <c r="F54">
+        <v>-0.108968844425007</v>
+      </c>
+      <c r="G54">
+        <v>0.08590277026876739</v>
+      </c>
+      <c r="H54">
+        <v>-0.07878276367303905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>-0.4241608225451</v>
+      </c>
+      <c r="C55">
+        <v>-0.5266233903913533</v>
+      </c>
+      <c r="D55">
+        <v>-0.5221825708883736</v>
+      </c>
+      <c r="E55">
+        <v>-0.2221055480010342</v>
+      </c>
+      <c r="F55">
+        <v>-0.02723393330725979</v>
+      </c>
+      <c r="G55">
+        <v>-0.1919194672490662</v>
+      </c>
+      <c r="H55">
+        <v>-0.4737121592696116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>-0.1024625678462533</v>
+      </c>
+      <c r="C56">
+        <v>-0.09802174834327362</v>
+      </c>
+      <c r="D56">
+        <v>0.2020552745440658</v>
+      </c>
+      <c r="E56">
+        <v>0.3969268892378402</v>
+      </c>
+      <c r="F56">
+        <v>0.2322413552960338</v>
+      </c>
+      <c r="G56">
+        <v>-0.04955133672451159</v>
+      </c>
+      <c r="H56">
+        <v>-0.0450956565556615</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.004440819502979698</v>
+      </c>
+      <c r="C57">
+        <v>0.3045178423903191</v>
+      </c>
+      <c r="D57">
+        <v>0.4993894570840935</v>
+      </c>
+      <c r="E57">
+        <v>0.3347039231422871</v>
+      </c>
+      <c r="F57">
+        <v>0.05291123112174173</v>
+      </c>
+      <c r="G57">
+        <v>0.05736691129059182</v>
+      </c>
+      <c r="H57">
+        <v>-0.1666148198466239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.3000770228873394</v>
+      </c>
+      <c r="C58">
+        <v>0.4949486375811138</v>
+      </c>
+      <c r="D58">
+        <v>0.3302631036393074</v>
+      </c>
+      <c r="E58">
+        <v>0.04847041161876203</v>
+      </c>
+      <c r="F58">
+        <v>0.05292609178761212</v>
+      </c>
+      <c r="G58">
+        <v>-0.1710556393496035</v>
+      </c>
+      <c r="H58">
+        <v>-0.2075031970107058</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.1948716146937744</v>
+      </c>
+      <c r="C59">
+        <v>0.03018608075196796</v>
+      </c>
+      <c r="D59">
+        <v>-0.2516066112685774</v>
+      </c>
+      <c r="E59">
+        <v>-0.2471509310997273</v>
+      </c>
+      <c r="F59">
+        <v>-0.4711326622369429</v>
+      </c>
+      <c r="G59">
+        <v>-0.5075802198980452</v>
+      </c>
+      <c r="H59">
+        <v>-0.1316045343253474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>-0.1646855339418064</v>
+      </c>
+      <c r="C60">
+        <v>-0.4464782259623518</v>
+      </c>
+      <c r="D60">
+        <v>-0.4420225457935017</v>
+      </c>
+      <c r="E60">
+        <v>-0.6660042769307174</v>
+      </c>
+      <c r="F60">
+        <v>-0.7024518345918196</v>
+      </c>
+      <c r="G60">
+        <v>-0.3264761490191218</v>
+      </c>
+      <c r="H60">
+        <v>0.00570742743791261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>-0.2817926920205454</v>
+      </c>
+      <c r="C61">
+        <v>-0.2773370118516952</v>
+      </c>
+      <c r="D61">
+        <v>-0.5013187429889109</v>
+      </c>
+      <c r="E61">
+        <v>-0.5377663006500132</v>
+      </c>
+      <c r="F61">
+        <v>-0.1617906150773153</v>
+      </c>
+      <c r="G61">
+        <v>0.170392961379719</v>
+      </c>
+      <c r="H61">
+        <v>-1.106423987943507</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.00445568016885009</v>
+      </c>
+      <c r="C62">
+        <v>-0.2195260509683656</v>
+      </c>
+      <c r="D62">
+        <v>-0.2559736086294678</v>
+      </c>
+      <c r="E62">
+        <v>0.12000207694323</v>
+      </c>
+      <c r="F62">
+        <v>0.4521856534002644</v>
+      </c>
+      <c r="G62">
+        <v>-0.8246312959229619</v>
+      </c>
+      <c r="H62">
+        <v>0.2097736681848474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>-0.2239817311372157</v>
+      </c>
+      <c r="C63">
+        <v>-0.2604292887983179</v>
+      </c>
+      <c r="D63">
+        <v>0.1155463967743799</v>
+      </c>
+      <c r="E63">
+        <v>0.4477299732314143</v>
+      </c>
+      <c r="F63">
+        <v>-0.829086976091812</v>
+      </c>
+      <c r="G63">
+        <v>0.2053179880159973</v>
+      </c>
+      <c r="H63">
+        <v>-0.4054364561506832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>-0.03644755766110225</v>
+      </c>
+      <c r="C64">
+        <v>0.3395281279115956</v>
+      </c>
+      <c r="D64">
+        <v>0.67171170436863</v>
+      </c>
+      <c r="E64">
+        <v>-0.6051052449545964</v>
+      </c>
+      <c r="F64">
+        <v>0.429299719153213</v>
+      </c>
+      <c r="G64">
+        <v>-0.1814547250134675</v>
+      </c>
+      <c r="H64">
+        <v>0.4293753566004055</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.3759756855726978</v>
+      </c>
+      <c r="C65">
+        <v>0.7081592620297322</v>
+      </c>
+      <c r="D65">
+        <v>-0.5686576872934941</v>
+      </c>
+      <c r="E65">
+        <v>0.4657472768143153</v>
+      </c>
+      <c r="F65">
+        <v>-0.1450071673523653</v>
+      </c>
+      <c r="G65">
+        <v>0.4658229142615077</v>
+      </c>
+      <c r="H65">
+        <v>0.1100989941371082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.3321835764570344</v>
+      </c>
+      <c r="C66">
+        <v>-0.944633372866192</v>
+      </c>
+      <c r="D66">
+        <v>0.08977159124161742</v>
+      </c>
+      <c r="E66">
+        <v>-0.5209828529250631</v>
+      </c>
+      <c r="F66">
+        <v>0.08984722868880991</v>
+      </c>
+      <c r="G66">
+        <v>-0.2658766914355896</v>
+      </c>
+      <c r="H66">
+        <v>-0.8016008254411253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>-1.276816949323226</v>
+      </c>
+      <c r="C67">
+        <v>-0.242411985215417</v>
+      </c>
+      <c r="D67">
+        <v>-0.8531664293820975</v>
+      </c>
+      <c r="E67">
+        <v>-0.2423363477682245</v>
+      </c>
+      <c r="F67">
+        <v>-0.598060267892624</v>
+      </c>
+      <c r="G67">
+        <v>-1.13378440189816</v>
+      </c>
+      <c r="H67">
+        <v>-0.8673607775300539</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>1.034404964107809</v>
+      </c>
+      <c r="C68">
+        <v>0.4236505199411288</v>
+      </c>
+      <c r="D68">
+        <v>1.034480601555002</v>
+      </c>
+      <c r="E68">
+        <v>0.6787566814306023</v>
+      </c>
+      <c r="F68">
+        <v>0.1430325474250667</v>
+      </c>
+      <c r="G68">
+        <v>0.4094561717931724</v>
+      </c>
+      <c r="H68">
+        <v>0.1712765096191511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>-0.6107544441666806</v>
+      </c>
+      <c r="C69">
+        <v>7.563744719249477E-05</v>
+      </c>
+      <c r="D69">
+        <v>-0.3556482826772071</v>
+      </c>
+      <c r="E69">
+        <v>-0.8913724166827427</v>
+      </c>
+      <c r="F69">
+        <v>-0.624948792314637</v>
+      </c>
+      <c r="G69">
+        <v>-0.8631284544886583</v>
+      </c>
+      <c r="H69">
+        <v>-0.5009766057787747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.6108300816138731</v>
+      </c>
+      <c r="C70">
+        <v>0.2551061614894735</v>
+      </c>
+      <c r="D70">
+        <v>-0.2806179725160621</v>
+      </c>
+      <c r="E70">
+        <v>-0.01419434814795639</v>
+      </c>
+      <c r="F70">
+        <v>-0.2523740103219777</v>
+      </c>
+      <c r="G70">
+        <v>0.1097778383879059</v>
+      </c>
+      <c r="H70">
+        <v>0.3611723801466863</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>-0.3557239201243995</v>
+      </c>
+      <c r="C71">
+        <v>-0.8914480541299352</v>
+      </c>
+      <c r="D71">
+        <v>-0.6250244297618295</v>
+      </c>
+      <c r="E71">
+        <v>-0.8632040919358508</v>
+      </c>
+      <c r="F71">
+        <v>-0.5010522432259672</v>
+      </c>
+      <c r="G71">
+        <v>-0.2496577014671868</v>
+      </c>
+      <c r="H71">
+        <v>-0.6738509284483397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>-0.5357241340055356</v>
+      </c>
+      <c r="C72">
+        <v>-0.2693005096374299</v>
+      </c>
+      <c r="D72">
+        <v>-0.5074801718114512</v>
+      </c>
+      <c r="E72">
+        <v>-0.1453283231015676</v>
+      </c>
+      <c r="F72">
+        <v>0.1060662186572128</v>
+      </c>
+      <c r="G72">
+        <v>-0.3181270083239401</v>
+      </c>
+      <c r="H72">
+        <v>0.09929443975481228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.2664236243681057</v>
+      </c>
+      <c r="C73">
+        <v>0.02824396219408443</v>
+      </c>
+      <c r="D73">
+        <v>0.390395810903968</v>
+      </c>
+      <c r="E73">
+        <v>0.6417903526627484</v>
+      </c>
+      <c r="F73">
+        <v>0.2175971256815955</v>
+      </c>
+      <c r="G73">
+        <v>0.635018573760348</v>
+      </c>
+      <c r="H73">
+        <v>-0.6269710322117936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>-0.2381796621740213</v>
+      </c>
+      <c r="C74">
+        <v>0.1239721865358623</v>
+      </c>
+      <c r="D74">
+        <v>0.3753667282946427</v>
+      </c>
+      <c r="E74">
+        <v>-0.04882649868651023</v>
+      </c>
+      <c r="F74">
+        <v>0.3685949493922422</v>
+      </c>
+      <c r="G74">
+        <v>-0.8933946565798994</v>
+      </c>
+      <c r="H74">
+        <v>1.130413471016464</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.3621518487098836</v>
+      </c>
+      <c r="C75">
+        <v>0.613546390468664</v>
+      </c>
+      <c r="D75">
+        <v>0.1893531634875111</v>
+      </c>
+      <c r="E75">
+        <v>0.6067746115662636</v>
+      </c>
+      <c r="F75">
+        <v>-0.655214994405878</v>
+      </c>
+      <c r="G75">
+        <v>1.368593133190485</v>
+      </c>
+      <c r="H75">
+        <v>1.397241954002023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.2513945417587804</v>
+      </c>
+      <c r="C76">
+        <v>-0.1727986852223725</v>
+      </c>
+      <c r="D76">
+        <v>0.2446227628563799</v>
+      </c>
+      <c r="E76">
+        <v>-1.017366843115762</v>
+      </c>
+      <c r="F76">
+        <v>1.006441284480602</v>
+      </c>
+      <c r="G76">
+        <v>1.035090105292139</v>
+      </c>
+      <c r="H76">
+        <v>2.618618931751757</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>-0.4241932269811529</v>
+      </c>
+      <c r="C77">
+        <v>-0.006771778902400494</v>
+      </c>
+      <c r="D77">
+        <v>-1.268761384874542</v>
+      </c>
+      <c r="E77">
+        <v>0.7550467427218215</v>
+      </c>
+      <c r="F77">
+        <v>0.7836955635333587</v>
+      </c>
+      <c r="G77">
+        <v>2.367224389992977</v>
+      </c>
+      <c r="H77">
+        <v>4.060045277934692</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.4174214480787524</v>
+      </c>
+      <c r="C78">
+        <v>-0.8445681578933891</v>
+      </c>
+      <c r="D78">
+        <v>1.179239969702975</v>
+      </c>
+      <c r="E78">
+        <v>1.207888790514512</v>
+      </c>
+      <c r="F78">
+        <v>2.79141761697413</v>
+      </c>
+      <c r="G78">
+        <v>4.484238504915845</v>
+      </c>
+      <c r="H78">
+        <v>0.3659550853098885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>-1.261989605972142</v>
+      </c>
+      <c r="C79">
+        <v>0.761818521624222</v>
+      </c>
+      <c r="D79">
+        <v>0.7904673424357591</v>
+      </c>
+      <c r="E79">
+        <v>2.373996168895377</v>
+      </c>
+      <c r="F79">
+        <v>4.066817056837093</v>
+      </c>
+      <c r="G79">
+        <v>-0.05146636276886396</v>
+      </c>
+      <c r="H79">
+        <v>-0.4619840383319073</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>2.023808127596364</v>
+      </c>
+      <c r="C80">
+        <v>2.052456948407901</v>
+      </c>
+      <c r="D80">
+        <v>3.635985774867519</v>
+      </c>
+      <c r="E80">
+        <v>5.328806662809233</v>
+      </c>
+      <c r="F80">
+        <v>1.210523243203278</v>
+      </c>
+      <c r="G80">
+        <v>0.8000055676402342</v>
+      </c>
+      <c r="H80">
+        <v>1.518536236896474</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.02864882081153713</v>
+      </c>
+      <c r="C81">
+        <v>1.612177647271155</v>
+      </c>
+      <c r="D81">
+        <v>3.30499853521287</v>
+      </c>
+      <c r="E81">
+        <v>-0.813284884393086</v>
+      </c>
+      <c r="F81">
+        <v>-1.223802559956129</v>
+      </c>
+      <c r="G81">
+        <v>-0.5052718906998898</v>
+      </c>
+      <c r="H81">
+        <v>-0.6571150323206157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>1.583528826459618</v>
+      </c>
+      <c r="C82">
+        <v>3.276349714401333</v>
+      </c>
+      <c r="D82">
+        <v>-0.8419337052046232</v>
+      </c>
+      <c r="E82">
+        <v>-1.252451380767666</v>
+      </c>
+      <c r="F82">
+        <v>-0.5339207115114269</v>
+      </c>
+      <c r="G82">
+        <v>-0.6857638531321528</v>
+      </c>
+      <c r="H82">
+        <v>-2.706504094908821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>1.692820887941715</v>
+      </c>
+      <c r="C83">
+        <v>-2.425462531664241</v>
+      </c>
+      <c r="D83">
+        <v>-2.835980207227284</v>
+      </c>
+      <c r="E83">
+        <v>-2.117449537971045</v>
+      </c>
+      <c r="F83">
+        <v>-2.269292679591771</v>
+      </c>
+      <c r="G83">
+        <v>-4.290032921368439</v>
+      </c>
+      <c r="H83">
+        <v>-2.805957287608681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>-4.118283419605956</v>
+      </c>
+      <c r="C84">
+        <v>-4.528801095168999</v>
+      </c>
+      <c r="D84">
+        <v>-3.81027042591276</v>
+      </c>
+      <c r="E84">
+        <v>-3.962113567533486</v>
+      </c>
+      <c r="F84">
+        <v>-5.982853809310154</v>
+      </c>
+      <c r="G84">
+        <v>-4.498778175550395</v>
+      </c>
+      <c r="H84">
+        <v>-4.165559092588866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>-0.4105176755630434</v>
+      </c>
+      <c r="C85">
+        <v>0.3080129936931962</v>
+      </c>
+      <c r="D85">
+        <v>0.1561698520724703</v>
+      </c>
+      <c r="E85">
+        <v>-1.864570389704198</v>
+      </c>
+      <c r="F85">
+        <v>-0.3804947559444394</v>
+      </c>
+      <c r="G85">
+        <v>-0.0472756729829098</v>
+      </c>
+      <c r="H85">
+        <v>-1.18166085557908</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.7185306692562395</v>
+      </c>
+      <c r="C86">
+        <v>0.5666875276355137</v>
+      </c>
+      <c r="D86">
+        <v>-1.454052714141154</v>
+      </c>
+      <c r="E86">
+        <v>0.03002291961860393</v>
+      </c>
+      <c r="F86">
+        <v>0.3632420025801336</v>
+      </c>
+      <c r="G86">
+        <v>-0.7711431800160362</v>
+      </c>
+      <c r="H86">
+        <v>0.6088167804617307</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>-0.1518431416207259</v>
+      </c>
+      <c r="C87">
+        <v>-2.172583383397394</v>
+      </c>
+      <c r="D87">
+        <v>-0.6885077496376356</v>
+      </c>
+      <c r="E87">
+        <v>-0.355288666676106</v>
+      </c>
+      <c r="F87">
+        <v>-1.489673849272276</v>
+      </c>
+      <c r="G87">
+        <v>-0.1097138887945088</v>
+      </c>
+      <c r="H87">
+        <v>-0.4935096937046757</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>-2.020740241776668</v>
+      </c>
+      <c r="C88">
+        <v>-0.5366646080169097</v>
+      </c>
+      <c r="D88">
+        <v>-0.2034455250553801</v>
+      </c>
+      <c r="E88">
+        <v>-1.33783070765155</v>
+      </c>
+      <c r="F88">
+        <v>0.0421292528262171</v>
+      </c>
+      <c r="G88">
+        <v>-0.3416665520839498</v>
+      </c>
+      <c r="H88">
+        <v>0.3432193386903587</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>1.484075633759758</v>
+      </c>
+      <c r="C89">
+        <v>1.817294716721288</v>
+      </c>
+      <c r="D89">
+        <v>0.6829095341251181</v>
+      </c>
+      <c r="E89">
+        <v>2.062869494602885</v>
+      </c>
+      <c r="F89">
+        <v>1.679073689692718</v>
+      </c>
+      <c r="G89">
+        <v>2.363959580467027</v>
+      </c>
+      <c r="H89">
+        <v>1.671934196085356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.3332190829615296</v>
+      </c>
+      <c r="C90">
+        <v>-0.8011660996346401</v>
+      </c>
+      <c r="D90">
+        <v>0.5787938608431268</v>
+      </c>
+      <c r="E90">
+        <v>0.1949980559329599</v>
+      </c>
+      <c r="F90">
+        <v>0.8798839467072684</v>
+      </c>
+      <c r="G90">
+        <v>0.1878585623255973</v>
+      </c>
+      <c r="H90">
+        <v>0.4273069063282261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>-1.13438518259617</v>
+      </c>
+      <c r="C91">
+        <v>0.2455747778815972</v>
+      </c>
+      <c r="D91">
+        <v>-0.1382210270285697</v>
+      </c>
+      <c r="E91">
+        <v>0.5466648637457387</v>
+      </c>
+      <c r="F91">
+        <v>-0.1453605206359324</v>
+      </c>
+      <c r="G91">
+        <v>0.09408782336669647</v>
+      </c>
+      <c r="H91">
+        <v>0.1308158001258672</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>1.379959960477767</v>
+      </c>
+      <c r="C92">
+        <v>0.9961641555676001</v>
+      </c>
+      <c r="D92">
+        <v>1.681050046341908</v>
+      </c>
+      <c r="E92">
+        <v>0.9890246619602374</v>
+      </c>
+      <c r="F92">
+        <v>1.228473005962866</v>
+      </c>
+      <c r="G92">
+        <v>1.265200982722037</v>
+      </c>
+      <c r="H92">
+        <v>2.091695057109352</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>-0.3837958049101668</v>
+      </c>
+      <c r="C93">
+        <v>0.3010900858641416</v>
+      </c>
+      <c r="D93">
+        <v>-0.3909352985175295</v>
+      </c>
+      <c r="E93">
+        <v>-0.1514869545149007</v>
+      </c>
+      <c r="F93">
+        <v>-0.11475897775573</v>
+      </c>
+      <c r="G93">
+        <v>0.7117350966315855</v>
+      </c>
+      <c r="H93">
+        <v>0.05593688651002028</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.6848858907743085</v>
+      </c>
+      <c r="C94">
+        <v>-0.007139493607362657</v>
+      </c>
+      <c r="D94">
+        <v>0.2323088503952662</v>
+      </c>
+      <c r="E94">
+        <v>0.2690368271544369</v>
+      </c>
+      <c r="F94">
+        <v>1.095530901541752</v>
+      </c>
+      <c r="G94">
+        <v>0.4397326914201872</v>
+      </c>
+      <c r="H94">
+        <v>-0.2184175483054337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>-0.6920253843816712</v>
+      </c>
+      <c r="C95">
+        <v>-0.4525770403790423</v>
+      </c>
+      <c r="D95">
+        <v>-0.4158490636198716</v>
+      </c>
+      <c r="E95">
+        <v>0.4106450107674439</v>
+      </c>
+      <c r="F95">
+        <v>-0.2451531993541213</v>
+      </c>
+      <c r="G95">
+        <v>-0.9033034390797422</v>
+      </c>
+      <c r="H95">
+        <v>-0.5041884912279591</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.2394483440026288</v>
+      </c>
+      <c r="C96">
+        <v>0.2761763207617995</v>
+      </c>
+      <c r="D96">
+        <v>1.102670395149115</v>
+      </c>
+      <c r="E96">
+        <v>0.4468721850275498</v>
+      </c>
+      <c r="F96">
+        <v>-0.211278054698071</v>
+      </c>
+      <c r="G96">
+        <v>0.187836893153712</v>
+      </c>
+      <c r="H96">
+        <v>0.1264003510321347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.03672797675917072</v>
+      </c>
+      <c r="C97">
+        <v>0.8632220511464862</v>
+      </c>
+      <c r="D97">
+        <v>0.207423841024921</v>
+      </c>
+      <c r="E97">
+        <v>-0.4507263987006999</v>
+      </c>
+      <c r="F97">
+        <v>-0.05161145084891677</v>
+      </c>
+      <c r="G97">
+        <v>-0.1130479929704942</v>
+      </c>
+      <c r="H97">
+        <v>-0.5472139280875977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.8264940743873155</v>
+      </c>
+      <c r="C98">
+        <v>0.1706958642657503</v>
+      </c>
+      <c r="D98">
+        <v>-0.4874543754598706</v>
+      </c>
+      <c r="E98">
+        <v>-0.0883394276080875</v>
+      </c>
+      <c r="F98">
+        <v>-0.1497759697296649</v>
+      </c>
+      <c r="G98">
+        <v>-0.5839419048467684</v>
+      </c>
+      <c r="H98">
+        <v>0.3948594872323085</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>-0.6557982101215653</v>
+      </c>
+      <c r="C99">
+        <v>-1.313948449847186</v>
+      </c>
+      <c r="D99">
+        <v>-0.914833501995403</v>
+      </c>
+      <c r="E99">
+        <v>-0.9762700441169804</v>
+      </c>
+      <c r="F99">
+        <v>-1.410435979234084</v>
+      </c>
+      <c r="G99">
+        <v>-0.431634587155007</v>
+      </c>
+      <c r="H99">
+        <v>-0.6587504916029332</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>-0.6581502397256208</v>
+      </c>
+      <c r="C100">
+        <v>-0.2590352918738378</v>
+      </c>
+      <c r="D100">
+        <v>-0.3204718339954152</v>
+      </c>
+      <c r="E100">
+        <v>-0.7546377691125187</v>
+      </c>
+      <c r="F100">
+        <v>0.2241636229665582</v>
+      </c>
+      <c r="G100">
+        <v>-0.00295228148136796</v>
+      </c>
+      <c r="H100">
+        <v>-0.6364120109074565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.3991149478517831</v>
+      </c>
+      <c r="C101">
+        <v>0.3376784057302057</v>
+      </c>
+      <c r="D101">
+        <v>-0.09648752938689786</v>
+      </c>
+      <c r="E101">
+        <v>0.882313862692179</v>
+      </c>
+      <c r="F101">
+        <v>0.6551979582442529</v>
+      </c>
+      <c r="G101">
+        <v>0.02173822881816434</v>
+      </c>
+      <c r="H101">
+        <v>0.4491351874737687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>-0.0614365421215774</v>
+      </c>
+      <c r="C102">
+        <v>-0.4956024772386809</v>
+      </c>
+      <c r="D102">
+        <v>0.483198914840396</v>
+      </c>
+      <c r="E102">
+        <v>0.2560830103924698</v>
+      </c>
+      <c r="F102">
+        <v>-0.3773767190336187</v>
+      </c>
+      <c r="G102">
+        <v>0.0500202396219856</v>
+      </c>
+      <c r="H102">
+        <v>-0.1163167150661613</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>-0.4341659351171036</v>
+      </c>
+      <c r="C103">
+        <v>0.5446354569619734</v>
+      </c>
+      <c r="D103">
+        <v>0.3175195525140472</v>
+      </c>
+      <c r="E103">
+        <v>-0.3159401769120413</v>
+      </c>
+      <c r="F103">
+        <v>0.111456781743563</v>
+      </c>
+      <c r="G103">
+        <v>-0.05488017294458392</v>
+      </c>
+      <c r="H103">
+        <v>0.06783084349624191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.9788013920790769</v>
+      </c>
+      <c r="C104">
+        <v>0.7516854876311507</v>
+      </c>
+      <c r="D104">
+        <v>0.1182257582050622</v>
+      </c>
+      <c r="E104">
+        <v>0.5456227168606665</v>
+      </c>
+      <c r="F104">
+        <v>0.3792857621725196</v>
+      </c>
+      <c r="G104">
+        <v>0.5019967786133455</v>
+      </c>
+      <c r="H104">
+        <v>0.5492305151684858</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>-0.2271159044479262</v>
+      </c>
+      <c r="C105">
+        <v>-0.8605756338740147</v>
+      </c>
+      <c r="D105">
+        <v>-0.4331786752184104</v>
+      </c>
+      <c r="E105">
+        <v>-0.5995156299065573</v>
+      </c>
+      <c r="F105">
+        <v>-0.4768046134657314</v>
+      </c>
+      <c r="G105">
+        <v>-0.4295708769105911</v>
+      </c>
+      <c r="H105">
+        <v>-0.8261896084330428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>-0.6334597294260885</v>
+      </c>
+      <c r="C106">
+        <v>-0.2060627707704842</v>
+      </c>
+      <c r="D106">
+        <v>-0.3723997254586311</v>
+      </c>
+      <c r="E106">
+        <v>-0.2496887090178053</v>
+      </c>
+      <c r="F106">
+        <v>-0.202454972462665</v>
+      </c>
+      <c r="G106">
+        <v>-0.5990737039851166</v>
+      </c>
+      <c r="H106">
+        <v>-0.3450216688613965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.4273969586556043</v>
+      </c>
+      <c r="C107">
+        <v>0.2610600039674574</v>
+      </c>
+      <c r="D107">
+        <v>0.3837710204082833</v>
+      </c>
+      <c r="E107">
+        <v>0.4310047569634236</v>
+      </c>
+      <c r="F107">
+        <v>0.03438602544097191</v>
+      </c>
+      <c r="G107">
+        <v>0.288438060564692</v>
+      </c>
+      <c r="H107">
+        <v>0.5085624504382646</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>-0.1663369546881469</v>
+      </c>
+      <c r="C108">
+        <v>-0.04362593824732108</v>
+      </c>
+      <c r="D108">
+        <v>0.00360779830781921</v>
+      </c>
+      <c r="E108">
+        <v>-0.3930109332146324</v>
+      </c>
+      <c r="F108">
+        <v>-0.1389588980909123</v>
+      </c>
+      <c r="G108">
+        <v>0.0811654917826603</v>
+      </c>
+      <c r="H108">
+        <v>-0.1546229568040079</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.1227110164408258</v>
+      </c>
+      <c r="C109">
+        <v>0.1699447529959661</v>
+      </c>
+      <c r="D109">
+        <v>-0.2266739785264855</v>
+      </c>
+      <c r="E109">
+        <v>0.02737805659723458</v>
+      </c>
+      <c r="F109">
+        <v>0.2475024464708072</v>
+      </c>
+      <c r="G109">
+        <v>0.01171399788413902</v>
+      </c>
+      <c r="H109">
+        <v>-0.1672587595866457</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.04723373655514029</v>
+      </c>
+      <c r="C110">
+        <v>-0.3493849949673113</v>
+      </c>
+      <c r="D110">
+        <v>-0.09533295984359125</v>
+      </c>
+      <c r="E110">
+        <v>0.1247914300299814</v>
+      </c>
+      <c r="F110">
+        <v>-0.1109970185566868</v>
+      </c>
+      <c r="G110">
+        <v>-0.2899697760274715</v>
+      </c>
+      <c r="H110">
+        <v>-0.3005303062867926</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>-0.3966187315224516</v>
+      </c>
+      <c r="C111">
+        <v>-0.1425666963987315</v>
+      </c>
+      <c r="D111">
+        <v>0.07755769347484109</v>
+      </c>
+      <c r="E111">
+        <v>-0.1582307551118271</v>
+      </c>
+      <c r="F111">
+        <v>-0.3372035125826118</v>
+      </c>
+      <c r="G111">
+        <v>-0.3477640428419329</v>
+      </c>
+      <c r="H111">
+        <v>-0.5554831530000629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112">
+        <v>0.2540520351237201</v>
+      </c>
+      <c r="C112">
+        <v>0.4741764249972927</v>
+      </c>
+      <c r="D112">
+        <v>0.2383879764106245</v>
+      </c>
+      <c r="E112">
+        <v>0.05941521893983981</v>
+      </c>
+      <c r="F112">
+        <v>0.04885468868051879</v>
+      </c>
+      <c r="G112">
+        <v>-0.1588644214776113</v>
+      </c>
+      <c r="H112">
+        <v>0.05834447799729348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B113">
+        <v>0.2201243898735726</v>
+      </c>
+      <c r="C113">
+        <v>-0.01566405871309556</v>
+      </c>
+      <c r="D113">
+        <v>-0.1946368161838803</v>
+      </c>
+      <c r="E113">
+        <v>-0.2051973464432013</v>
+      </c>
+      <c r="F113">
+        <v>-0.4129164566013314</v>
+      </c>
+      <c r="G113">
+        <v>-0.1957075571264266</v>
+      </c>
+      <c r="H113">
+        <v>0.1139786121316348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114">
+        <v>-0.2357884485866682</v>
+      </c>
+      <c r="C114">
+        <v>-0.4147612060574529</v>
+      </c>
+      <c r="D114">
+        <v>-0.4253217363167739</v>
+      </c>
+      <c r="E114">
+        <v>-0.633040846474904</v>
+      </c>
+      <c r="F114">
+        <v>-0.4158319469999993</v>
+      </c>
+      <c r="G114">
+        <v>-0.1061457777419378</v>
+      </c>
+      <c r="H114">
+        <v>-0.2604499115739418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B115">
+        <v>-0.1789727574707847</v>
+      </c>
+      <c r="C115">
+        <v>-0.1895332877301057</v>
+      </c>
+      <c r="D115">
+        <v>-0.3972523978882358</v>
+      </c>
+      <c r="E115">
+        <v>-0.1800434984133311</v>
+      </c>
+      <c r="F115">
+        <v>0.1296426708447304</v>
+      </c>
+      <c r="G115">
+        <v>-0.02466146298727362</v>
+      </c>
+      <c r="H115">
+        <v>0.6257649582319096</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116">
+        <v>-0.01056053025932102</v>
+      </c>
+      <c r="C116">
+        <v>-0.2182796404174511</v>
+      </c>
+      <c r="D116">
+        <v>-0.001070740942546333</v>
+      </c>
+      <c r="E116">
+        <v>0.3086154283155151</v>
+      </c>
+      <c r="F116">
+        <v>0.1543112944835111</v>
+      </c>
+      <c r="G116">
+        <v>0.8047377157026943</v>
+      </c>
+      <c r="H116">
+        <v>0.5885726670844852</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117">
+        <v>-0.20771911015813</v>
+      </c>
+      <c r="C117">
+        <v>0.009489789316774688</v>
+      </c>
+      <c r="D117">
+        <v>0.3191759585748362</v>
+      </c>
+      <c r="E117">
+        <v>0.1648718247428321</v>
+      </c>
+      <c r="F117">
+        <v>0.8152982459620153</v>
+      </c>
+      <c r="G117">
+        <v>0.5991331973438062</v>
+      </c>
+      <c r="H117">
+        <v>0.1921040683088499</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B118">
+        <v>0.2172088994749047</v>
+      </c>
+      <c r="C118">
+        <v>0.5268950687329662</v>
+      </c>
+      <c r="D118">
+        <v>0.3725909349009622</v>
+      </c>
+      <c r="E118">
+        <v>1.023017356120145</v>
+      </c>
+      <c r="F118">
+        <v>0.8068523075019363</v>
+      </c>
+      <c r="G118">
+        <v>0.3998231784669799</v>
+      </c>
+      <c r="H118">
+        <v>0.8988653956443997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B119">
+        <v>0.3096861692580615</v>
+      </c>
+      <c r="C119">
+        <v>0.1553820354260574</v>
+      </c>
+      <c r="D119">
+        <v>0.8058084566452406</v>
+      </c>
+      <c r="E119">
+        <v>0.5896434080270315</v>
+      </c>
+      <c r="F119">
+        <v>0.1826142789920752</v>
+      </c>
+      <c r="G119">
+        <v>0.681656496169495</v>
+      </c>
+      <c r="H119">
+        <v>0.5228075830139824</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120">
+        <v>-0.154304133832004</v>
+      </c>
+      <c r="C120">
+        <v>0.4961222873871792</v>
+      </c>
+      <c r="D120">
+        <v>0.2799572387689701</v>
+      </c>
+      <c r="E120">
+        <v>-0.1270718902659863</v>
+      </c>
+      <c r="F120">
+        <v>0.3719703269114335</v>
+      </c>
+      <c r="G120">
+        <v>0.2131214137559209</v>
+      </c>
+      <c r="H120">
+        <v>0.269285234726165</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121">
+        <v>0.6504264212191833</v>
+      </c>
+      <c r="C121">
+        <v>0.4342613726009741</v>
+      </c>
+      <c r="D121">
+        <v>0.02723224356601772</v>
+      </c>
+      <c r="E121">
+        <v>0.5262744607434375</v>
+      </c>
+      <c r="F121">
+        <v>0.3674255475879249</v>
+      </c>
+      <c r="G121">
+        <v>0.423589368558169</v>
+      </c>
+      <c r="H121">
+        <v>2.673392208169561</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122">
+        <v>-0.2161650486182091</v>
+      </c>
+      <c r="C122">
+        <v>-0.6231941776531655</v>
+      </c>
+      <c r="D122">
+        <v>-0.1241519604757457</v>
+      </c>
+      <c r="E122">
+        <v>-0.2830008736312583</v>
+      </c>
+      <c r="F122">
+        <v>-0.2268370526610142</v>
+      </c>
+      <c r="G122">
+        <v>2.022965786950378</v>
+      </c>
+      <c r="H122">
+        <v>9.492116117807671</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123">
+        <v>-0.4070291290349564</v>
+      </c>
+      <c r="C123">
+        <v>0.09201308814246346</v>
+      </c>
+      <c r="D123">
+        <v>-0.06683582501304909</v>
+      </c>
+      <c r="E123">
+        <v>-0.01067200404280504</v>
+      </c>
+      <c r="F123">
+        <v>2.239130835568587</v>
+      </c>
+      <c r="G123">
+        <v>9.708281166425881</v>
+      </c>
+      <c r="H123">
+        <v>-8.462980633711588</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B124">
+        <v>0.4990422171774198</v>
+      </c>
+      <c r="C124">
+        <v>0.3401933040219072</v>
+      </c>
+      <c r="D124">
+        <v>0.3963571249921513</v>
+      </c>
+      <c r="E124">
+        <v>2.646159964603544</v>
+      </c>
+      <c r="F124">
+        <v>10.11531029546084</v>
+      </c>
+      <c r="G124">
+        <v>-8.055951504676631</v>
+      </c>
+      <c r="H124">
+        <v>0.08372004230251717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B125">
+        <v>-0.1588489131555126</v>
+      </c>
+      <c r="C125">
+        <v>-0.1026850921852685</v>
+      </c>
+      <c r="D125">
+        <v>2.147117747426124</v>
+      </c>
+      <c r="E125">
+        <v>9.616268078283417</v>
+      </c>
+      <c r="F125">
+        <v>-8.554993721854052</v>
+      </c>
+      <c r="G125">
+        <v>-0.4153221748749026</v>
+      </c>
+      <c r="H125">
+        <v>1.73224829692449</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126">
+        <v>0.05616382097024405</v>
+      </c>
+      <c r="C126">
+        <v>2.305966660581636</v>
+      </c>
+      <c r="D126">
+        <v>9.77511699143893</v>
+      </c>
+      <c r="E126">
+        <v>-8.396144808698539</v>
+      </c>
+      <c r="F126">
+        <v>-0.2564732617193901</v>
+      </c>
+      <c r="G126">
+        <v>1.891097210080002</v>
+      </c>
+      <c r="H126">
+        <v>-1.548932776443328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B127">
+        <v>2.249802839611392</v>
+      </c>
+      <c r="C127">
+        <v>9.718953170468685</v>
+      </c>
+      <c r="D127">
+        <v>-8.452308629668783</v>
+      </c>
+      <c r="E127">
+        <v>-0.3126370826896341</v>
+      </c>
+      <c r="F127">
+        <v>1.834933389109758</v>
+      </c>
+      <c r="G127">
+        <v>-1.605096597413572</v>
+      </c>
+      <c r="H127">
+        <v>-1.666270775827773</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B128">
+        <v>7.469150330857293</v>
+      </c>
+      <c r="C128">
+        <v>-10.70211146928018</v>
+      </c>
+      <c r="D128">
+        <v>-2.562439922301026</v>
+      </c>
+      <c r="E128">
+        <v>-0.4148694505016339</v>
+      </c>
+      <c r="F128">
+        <v>-3.854899437024964</v>
+      </c>
+      <c r="G128">
+        <v>-3.916073615439165</v>
+      </c>
+      <c r="H128">
+        <v>-1.87461767828291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B129">
+        <v>-18.17126180013747</v>
+      </c>
+      <c r="C129">
+        <v>-10.03159025315832</v>
+      </c>
+      <c r="D129">
+        <v>-7.884019781358927</v>
+      </c>
+      <c r="E129">
+        <v>-11.32404976788226</v>
+      </c>
+      <c r="F129">
+        <v>-11.38522394629646</v>
+      </c>
+      <c r="G129">
+        <v>-9.343768009140204</v>
+      </c>
+      <c r="H129">
+        <v>-9.926362546173845</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130">
+        <v>8.13967154697915</v>
+      </c>
+      <c r="C130">
+        <v>10.28724201877854</v>
+      </c>
+      <c r="D130">
+        <v>6.847212032255212</v>
+      </c>
+      <c r="E130">
+        <v>6.786037853841011</v>
+      </c>
+      <c r="F130">
+        <v>8.827493790997265</v>
+      </c>
+      <c r="G130">
+        <v>8.244899253963624</v>
+      </c>
+      <c r="H130">
+        <v>8.340574294772981</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131">
+        <v>2.147570471799392</v>
+      </c>
+      <c r="C131">
+        <v>-1.292459514723937</v>
+      </c>
+      <c r="D131">
+        <v>-1.353633693138139</v>
+      </c>
+      <c r="E131">
+        <v>0.6878222440181159</v>
+      </c>
+      <c r="F131">
+        <v>0.1052277069844749</v>
+      </c>
+      <c r="G131">
+        <v>0.2009027477938327</v>
+      </c>
+      <c r="H131">
+        <v>-0.0595162892048901</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B132">
+        <v>-3.44002998652333</v>
+      </c>
+      <c r="C132">
+        <v>-3.501204164937531</v>
+      </c>
+      <c r="D132">
+        <v>-1.459748227781277</v>
+      </c>
+      <c r="E132">
+        <v>-2.042342764814918</v>
+      </c>
+      <c r="F132">
+        <v>-1.94666772400556</v>
+      </c>
+      <c r="G132">
+        <v>-2.207086761004283</v>
+      </c>
+      <c r="H132">
+        <v>-1.371631764845791</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B133">
+        <v>-0.06117417841420103</v>
+      </c>
+      <c r="C133">
+        <v>1.980281758742053</v>
+      </c>
+      <c r="D133">
+        <v>1.397687221708412</v>
+      </c>
+      <c r="E133">
+        <v>1.49336226251777</v>
+      </c>
+      <c r="F133">
+        <v>1.232943225519047</v>
+      </c>
+      <c r="G133">
+        <v>2.068398221677539</v>
+      </c>
+      <c r="H133">
+        <v>1.968318861774917</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B134">
+        <v>2.041455937156254</v>
+      </c>
+      <c r="C134">
+        <v>1.458861400122613</v>
+      </c>
+      <c r="D134">
+        <v>1.554536440931971</v>
+      </c>
+      <c r="E134">
+        <v>1.294117403933248</v>
+      </c>
+      <c r="F134">
+        <v>2.12957240009174</v>
+      </c>
+      <c r="G134">
+        <v>2.029493040189118</v>
+      </c>
+      <c r="H134">
+        <v>1.675706534109422</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B135">
+        <v>-0.5825945370336409</v>
+      </c>
+      <c r="C135">
+        <v>-0.4869194962242832</v>
+      </c>
+      <c r="D135">
+        <v>-0.747338533223006</v>
+      </c>
+      <c r="E135">
+        <v>0.0881164629354852</v>
+      </c>
+      <c r="F135">
+        <v>-0.01196289696713632</v>
+      </c>
+      <c r="G135">
+        <v>-0.3657494030468326</v>
+      </c>
+      <c r="H135">
+        <v>-0.2175720126143872</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136">
+        <v>0.09567504080935779</v>
+      </c>
+      <c r="C136">
+        <v>-0.164743996189365</v>
+      </c>
+      <c r="D136">
+        <v>0.6707109999691262</v>
+      </c>
+      <c r="E136">
+        <v>0.5706316400665047</v>
+      </c>
+      <c r="F136">
+        <v>0.2168451339868084</v>
+      </c>
+      <c r="G136">
+        <v>0.3650225244192538</v>
+      </c>
+      <c r="H136">
+        <v>0.5224685134234088</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>-0.2604190369987228</v>
+      </c>
+      <c r="C137">
+        <v>0.5750359591597685</v>
+      </c>
+      <c r="D137">
+        <v>0.4749565992571469</v>
+      </c>
+      <c r="E137">
+        <v>0.1211700931774507</v>
+      </c>
+      <c r="F137">
+        <v>0.269347483609896</v>
+      </c>
+      <c r="G137">
+        <v>0.426793472614051</v>
+      </c>
+      <c r="H137">
+        <v>-0.07386598391201982</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138">
+        <v>0.8354549961584912</v>
+      </c>
+      <c r="C138">
+        <v>0.7353756362558697</v>
+      </c>
+      <c r="D138">
+        <v>0.3815891301761735</v>
+      </c>
+      <c r="E138">
+        <v>0.5297665206086188</v>
+      </c>
+      <c r="F138">
+        <v>0.6872125096127738</v>
+      </c>
+      <c r="G138">
+        <v>0.186553053086703</v>
+      </c>
+      <c r="H138">
+        <v>0.4669109336221722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B139">
+        <v>-0.1000793599026215</v>
+      </c>
+      <c r="C139">
+        <v>-0.4538658659823178</v>
+      </c>
+      <c r="D139">
+        <v>-0.3056884755498724</v>
+      </c>
+      <c r="E139">
+        <v>-0.1482424865457174</v>
+      </c>
+      <c r="F139">
+        <v>-0.6489019430717882</v>
+      </c>
+      <c r="G139">
+        <v>-0.3685440625363191</v>
+      </c>
+      <c r="H139">
+        <v>-0.5405189203813308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B140">
+        <v>-0.3537865060796963</v>
+      </c>
+      <c r="C140">
+        <v>-0.2056091156472509</v>
+      </c>
+      <c r="D140">
+        <v>-0.04816312664309591</v>
+      </c>
+      <c r="E140">
+        <v>-0.5488225831691667</v>
+      </c>
+      <c r="F140">
+        <v>-0.2684647026336975</v>
+      </c>
+      <c r="G140">
+        <v>-0.4404395604787092</v>
+      </c>
+      <c r="H140">
+        <v>-0.1345770207323777</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B141">
+        <v>0.1481773904324453</v>
+      </c>
+      <c r="C141">
+        <v>0.3056233794366003</v>
+      </c>
+      <c r="D141">
+        <v>-0.1950360770894705</v>
+      </c>
+      <c r="E141">
+        <v>0.08532180344599868</v>
+      </c>
+      <c r="F141">
+        <v>-0.08665305439901295</v>
+      </c>
+      <c r="G141">
+        <v>0.2192094853473185</v>
+      </c>
+      <c r="H141">
+        <v>-0.3931204673399676</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B142">
+        <v>0.157445989004155</v>
+      </c>
+      <c r="C142">
+        <v>-0.3432134675219158</v>
+      </c>
+      <c r="D142">
+        <v>-0.06285558698644665</v>
+      </c>
+      <c r="E142">
+        <v>-0.2348304448314583</v>
+      </c>
+      <c r="F142">
+        <v>0.0710320949148732</v>
+      </c>
+      <c r="G142">
+        <v>-0.541297857772413</v>
+      </c>
+      <c r="H142">
+        <v>0.1470735274266985</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143">
+        <v>-0.5006594565260708</v>
+      </c>
+      <c r="C143">
+        <v>-0.2203015759906016</v>
+      </c>
+      <c r="D143">
+        <v>-0.3922764338356133</v>
+      </c>
+      <c r="E143">
+        <v>-0.0864138940892818</v>
+      </c>
+      <c r="F143">
+        <v>-0.698743846776568</v>
+      </c>
+      <c r="G143">
+        <v>-0.01037246157745647</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B144">
+        <v>0.2803578805354692</v>
+      </c>
+      <c r="C144">
+        <v>0.1083830226904575</v>
+      </c>
+      <c r="D144">
+        <v>0.414245562436789</v>
+      </c>
+      <c r="E144">
+        <v>-0.1980843902504972</v>
+      </c>
+      <c r="F144">
+        <v>0.4902869949486143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>-0.1719748578450117</v>
+      </c>
+      <c r="C145">
+        <v>0.1338876819013198</v>
+      </c>
+      <c r="D145">
+        <v>-0.4784422707859664</v>
+      </c>
+      <c r="E145">
+        <v>0.2099291144131452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B146">
+        <v>0.3058625397463315</v>
+      </c>
+      <c r="C146">
+        <v>-0.3064674129409547</v>
+      </c>
+      <c r="D146">
+        <v>0.3819039722581568</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B147">
+        <v>-0.6123299526872862</v>
+      </c>
+      <c r="C147">
+        <v>0.07604143251182532</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B148">
         <v>0.6883713851991116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
